--- a/Dados 2018/dataset_export/propp_to_merge.xlsx
+++ b/Dados 2018/dataset_export/propp_to_merge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="1168">
   <si>
     <t>Estudante</t>
   </si>
@@ -1759,9 +1759,6 @@
     <t>INFI</t>
   </si>
   <si>
-    <t xml:space="preserve">FAENG </t>
-  </si>
-  <si>
     <t>CPPP</t>
   </si>
   <si>
@@ -1789,12 +1786,6 @@
     <t>FAMEZ</t>
   </si>
   <si>
-    <t xml:space="preserve">FAMEZ </t>
-  </si>
-  <si>
-    <t>Inisa</t>
-  </si>
-  <si>
     <t>ESAN</t>
   </si>
   <si>
@@ -1811,9 +1802,6 @@
   </si>
   <si>
     <t>CPCX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAALC </t>
   </si>
   <si>
     <t>INDICADORES RELACIONADOS AO COMPORTAMENTO DE RISCO À SAÚDE EM  ADOLESCENTES DA REGIÃO DE FRONTEIRA BRASIL/BOLÍVIA</t>
@@ -3945,10 +3933,10 @@
         <v>572</v>
       </c>
       <c r="C2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D2" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3959,10 +3947,10 @@
         <v>572</v>
       </c>
       <c r="C3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D3" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3973,10 +3961,10 @@
         <v>573</v>
       </c>
       <c r="C4" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D4" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3987,10 +3975,10 @@
         <v>573</v>
       </c>
       <c r="C5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D5" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4001,10 +3989,10 @@
         <v>573</v>
       </c>
       <c r="C6" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D6" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4015,10 +4003,10 @@
         <v>573</v>
       </c>
       <c r="C7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D7" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4029,10 +4017,10 @@
         <v>573</v>
       </c>
       <c r="C8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D8" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4043,10 +4031,10 @@
         <v>573</v>
       </c>
       <c r="C9" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D9" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4057,10 +4045,10 @@
         <v>573</v>
       </c>
       <c r="C10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D10" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4071,10 +4059,10 @@
         <v>573</v>
       </c>
       <c r="C11" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D11" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4085,10 +4073,10 @@
         <v>573</v>
       </c>
       <c r="C12" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D12" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4099,10 +4087,10 @@
         <v>573</v>
       </c>
       <c r="C13" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D13" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4113,10 +4101,10 @@
         <v>573</v>
       </c>
       <c r="C14" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D14" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4127,10 +4115,10 @@
         <v>573</v>
       </c>
       <c r="C15" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D15" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4141,10 +4129,10 @@
         <v>574</v>
       </c>
       <c r="C16" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D16" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4155,10 +4143,10 @@
         <v>575</v>
       </c>
       <c r="C17" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D17" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4169,10 +4157,10 @@
         <v>575</v>
       </c>
       <c r="C18" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D18" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4183,10 +4171,10 @@
         <v>575</v>
       </c>
       <c r="C19" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D19" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4197,10 +4185,10 @@
         <v>575</v>
       </c>
       <c r="C20" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D20" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4211,10 +4199,10 @@
         <v>575</v>
       </c>
       <c r="C21" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D21" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4225,10 +4213,10 @@
         <v>575</v>
       </c>
       <c r="C22" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D22" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4239,10 +4227,10 @@
         <v>573</v>
       </c>
       <c r="C23" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D23" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4253,10 +4241,10 @@
         <v>573</v>
       </c>
       <c r="C24" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D24" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4267,10 +4255,10 @@
         <v>573</v>
       </c>
       <c r="C25" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D25" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4281,10 +4269,10 @@
         <v>576</v>
       </c>
       <c r="C26" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D26" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4295,10 +4283,10 @@
         <v>573</v>
       </c>
       <c r="C27" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D27" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4309,10 +4297,10 @@
         <v>573</v>
       </c>
       <c r="C28" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D28" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4323,10 +4311,10 @@
         <v>576</v>
       </c>
       <c r="C29" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D29" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4337,10 +4325,10 @@
         <v>573</v>
       </c>
       <c r="C30" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D30" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4351,10 +4339,10 @@
         <v>573</v>
       </c>
       <c r="C31" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D31" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4365,10 +4353,10 @@
         <v>573</v>
       </c>
       <c r="C32" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D32" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4379,10 +4367,10 @@
         <v>573</v>
       </c>
       <c r="C33" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D33" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4393,10 +4381,10 @@
         <v>577</v>
       </c>
       <c r="C34" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D34" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4407,10 +4395,10 @@
         <v>576</v>
       </c>
       <c r="C35" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D35" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4421,10 +4409,10 @@
         <v>576</v>
       </c>
       <c r="C36" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D36" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4435,10 +4423,10 @@
         <v>577</v>
       </c>
       <c r="C37" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D37" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4449,10 +4437,10 @@
         <v>576</v>
       </c>
       <c r="C38" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D38" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4463,10 +4451,10 @@
         <v>576</v>
       </c>
       <c r="C39" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D39" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4477,10 +4465,10 @@
         <v>576</v>
       </c>
       <c r="C40" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D40" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4491,10 +4479,10 @@
         <v>575</v>
       </c>
       <c r="C41" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D41" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4505,10 +4493,10 @@
         <v>576</v>
       </c>
       <c r="C42" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D42" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4519,10 +4507,10 @@
         <v>576</v>
       </c>
       <c r="C43" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D43" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4533,10 +4521,10 @@
         <v>576</v>
       </c>
       <c r="C44" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D44" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4547,10 +4535,10 @@
         <v>576</v>
       </c>
       <c r="C45" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D45" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4561,10 +4549,10 @@
         <v>576</v>
       </c>
       <c r="C46" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D46" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4575,10 +4563,10 @@
         <v>573</v>
       </c>
       <c r="C47" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D47" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4589,10 +4577,10 @@
         <v>575</v>
       </c>
       <c r="C48" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D48" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4603,10 +4591,10 @@
         <v>575</v>
       </c>
       <c r="C49" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D49" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4617,10 +4605,10 @@
         <v>575</v>
       </c>
       <c r="C50" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D50" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4631,10 +4619,10 @@
         <v>575</v>
       </c>
       <c r="C51" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D51" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4645,10 +4633,10 @@
         <v>575</v>
       </c>
       <c r="C52" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D52" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4659,10 +4647,10 @@
         <v>575</v>
       </c>
       <c r="C53" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D53" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4673,10 +4661,10 @@
         <v>575</v>
       </c>
       <c r="C54" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D54" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4687,10 +4675,10 @@
         <v>575</v>
       </c>
       <c r="C55" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D55" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4701,10 +4689,10 @@
         <v>575</v>
       </c>
       <c r="C56" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D56" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4715,10 +4703,10 @@
         <v>575</v>
       </c>
       <c r="C57" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D57" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4729,10 +4717,10 @@
         <v>578</v>
       </c>
       <c r="C58" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D58" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4743,10 +4731,10 @@
         <v>578</v>
       </c>
       <c r="C59" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D59" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4757,10 +4745,10 @@
         <v>578</v>
       </c>
       <c r="C60" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D60" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4771,10 +4759,10 @@
         <v>578</v>
       </c>
       <c r="C61" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D61" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4785,10 +4773,10 @@
         <v>576</v>
       </c>
       <c r="C62" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D62" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4799,10 +4787,10 @@
         <v>575</v>
       </c>
       <c r="C63" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D63" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4813,10 +4801,10 @@
         <v>576</v>
       </c>
       <c r="C64" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D64" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4827,10 +4815,10 @@
         <v>576</v>
       </c>
       <c r="C65" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D65" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4841,10 +4829,10 @@
         <v>575</v>
       </c>
       <c r="C66" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D66" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4855,10 +4843,10 @@
         <v>573</v>
       </c>
       <c r="C67" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D67" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4869,10 +4857,10 @@
         <v>575</v>
       </c>
       <c r="C68" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D68" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4883,10 +4871,10 @@
         <v>576</v>
       </c>
       <c r="C69" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D69" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4897,10 +4885,10 @@
         <v>576</v>
       </c>
       <c r="C70" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D70" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4911,10 +4899,10 @@
         <v>575</v>
       </c>
       <c r="C71" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D71" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4925,10 +4913,10 @@
         <v>574</v>
       </c>
       <c r="C72" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D72" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4939,10 +4927,10 @@
         <v>576</v>
       </c>
       <c r="C73" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D73" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4953,10 +4941,10 @@
         <v>576</v>
       </c>
       <c r="C74" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D74" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4967,10 +4955,10 @@
         <v>573</v>
       </c>
       <c r="C75" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D75" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4981,10 +4969,10 @@
         <v>573</v>
       </c>
       <c r="C76" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D76" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4995,10 +4983,10 @@
         <v>573</v>
       </c>
       <c r="C77" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D77" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5009,10 +4997,10 @@
         <v>573</v>
       </c>
       <c r="C78" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D78" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5023,10 +5011,10 @@
         <v>579</v>
       </c>
       <c r="C79" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D79" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5037,10 +5025,10 @@
         <v>579</v>
       </c>
       <c r="C80" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D80" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5051,10 +5039,10 @@
         <v>579</v>
       </c>
       <c r="C81" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D81" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5065,10 +5053,10 @@
         <v>579</v>
       </c>
       <c r="C82" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D82" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5079,10 +5067,10 @@
         <v>579</v>
       </c>
       <c r="C83" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D83" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5093,10 +5081,10 @@
         <v>579</v>
       </c>
       <c r="C84" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D84" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5107,10 +5095,10 @@
         <v>579</v>
       </c>
       <c r="C85" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D85" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5121,10 +5109,10 @@
         <v>579</v>
       </c>
       <c r="C86" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D86" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5135,10 +5123,10 @@
         <v>580</v>
       </c>
       <c r="C87" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D87" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5149,10 +5137,10 @@
         <v>579</v>
       </c>
       <c r="C88" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D88" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5163,10 +5151,10 @@
         <v>579</v>
       </c>
       <c r="C89" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D89" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5177,10 +5165,10 @@
         <v>579</v>
       </c>
       <c r="C90" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D90" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5191,10 +5179,10 @@
         <v>579</v>
       </c>
       <c r="C91" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D91" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5205,10 +5193,10 @@
         <v>579</v>
       </c>
       <c r="C92" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D92" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5219,10 +5207,10 @@
         <v>579</v>
       </c>
       <c r="C93" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D93" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5230,13 +5218,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C94" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D94" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5247,10 +5235,10 @@
         <v>579</v>
       </c>
       <c r="C95" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D95" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5261,10 +5249,10 @@
         <v>579</v>
       </c>
       <c r="C96" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D96" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -5275,10 +5263,10 @@
         <v>579</v>
       </c>
       <c r="C97" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D97" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5289,10 +5277,10 @@
         <v>579</v>
       </c>
       <c r="C98" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D98" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -5303,10 +5291,10 @@
         <v>579</v>
       </c>
       <c r="C99" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D99" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5317,10 +5305,10 @@
         <v>579</v>
       </c>
       <c r="C100" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D100" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5331,10 +5319,10 @@
         <v>579</v>
       </c>
       <c r="C101" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D101" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5345,10 +5333,10 @@
         <v>579</v>
       </c>
       <c r="C102" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D102" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5359,10 +5347,10 @@
         <v>579</v>
       </c>
       <c r="C103" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D103" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5373,10 +5361,10 @@
         <v>579</v>
       </c>
       <c r="C104" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D104" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5387,10 +5375,10 @@
         <v>579</v>
       </c>
       <c r="C105" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D105" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5401,10 +5389,10 @@
         <v>579</v>
       </c>
       <c r="C106" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D106" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5415,10 +5403,10 @@
         <v>579</v>
       </c>
       <c r="C107" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D107" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5429,10 +5417,10 @@
         <v>579</v>
       </c>
       <c r="C108" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D108" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -5443,10 +5431,10 @@
         <v>579</v>
       </c>
       <c r="C109" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D109" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5457,10 +5445,10 @@
         <v>579</v>
       </c>
       <c r="C110" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D110" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5471,10 +5459,10 @@
         <v>579</v>
       </c>
       <c r="C111" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D111" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -5485,10 +5473,10 @@
         <v>579</v>
       </c>
       <c r="C112" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D112" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5499,10 +5487,10 @@
         <v>579</v>
       </c>
       <c r="C113" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D113" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5513,10 +5501,10 @@
         <v>579</v>
       </c>
       <c r="C114" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D114" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5527,10 +5515,10 @@
         <v>579</v>
       </c>
       <c r="C115" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D115" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5541,10 +5529,10 @@
         <v>579</v>
       </c>
       <c r="C116" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D116" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5552,13 +5540,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C117" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D117" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5566,13 +5554,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C118" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D118" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5580,13 +5568,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C119" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D119" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5594,13 +5582,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C120" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D120" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5608,13 +5596,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C121" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D121" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5622,13 +5610,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C122" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D122" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5639,10 +5627,10 @@
         <v>577</v>
       </c>
       <c r="C123" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D123" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5650,13 +5638,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C124" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D124" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5664,13 +5652,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C125" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D125" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5678,13 +5666,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C126" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D126" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5695,10 +5683,10 @@
         <v>577</v>
       </c>
       <c r="C127" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D127" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5706,13 +5694,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C128" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D128" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5720,13 +5708,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C129" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D129" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5737,10 +5725,10 @@
         <v>577</v>
       </c>
       <c r="C130" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D130" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5748,13 +5736,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C131" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D131" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5762,13 +5750,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C132" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D132" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5776,13 +5764,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C133" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D133" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5790,13 +5778,13 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C134" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D134" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5804,13 +5792,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C135" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D135" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5818,13 +5806,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C136" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D136" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5832,13 +5820,13 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C137" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D137" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5849,10 +5837,10 @@
         <v>577</v>
       </c>
       <c r="C138" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D138" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5860,13 +5848,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C139" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D139" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5874,13 +5862,13 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C140" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D140" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5891,10 +5879,10 @@
         <v>579</v>
       </c>
       <c r="C141" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D141" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5905,10 +5893,10 @@
         <v>580</v>
       </c>
       <c r="C142" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D142" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5919,10 +5907,10 @@
         <v>580</v>
       </c>
       <c r="C143" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D143" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5933,10 +5921,10 @@
         <v>579</v>
       </c>
       <c r="C144" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D144" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5944,13 +5932,13 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C145" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D145" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5961,10 +5949,10 @@
         <v>580</v>
       </c>
       <c r="C146" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D146" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5975,10 +5963,10 @@
         <v>580</v>
       </c>
       <c r="C147" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D147" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5989,10 +5977,10 @@
         <v>580</v>
       </c>
       <c r="C148" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D148" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6003,10 +5991,10 @@
         <v>580</v>
       </c>
       <c r="C149" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D149" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -6017,10 +6005,10 @@
         <v>580</v>
       </c>
       <c r="C150" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D150" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6031,10 +6019,10 @@
         <v>579</v>
       </c>
       <c r="C151" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D151" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6045,10 +6033,10 @@
         <v>579</v>
       </c>
       <c r="C152" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D152" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6059,10 +6047,10 @@
         <v>579</v>
       </c>
       <c r="C153" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D153" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -6073,10 +6061,10 @@
         <v>579</v>
       </c>
       <c r="C154" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D154" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6087,10 +6075,10 @@
         <v>572</v>
       </c>
       <c r="C155" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D155" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -6101,10 +6089,10 @@
         <v>577</v>
       </c>
       <c r="C156" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D156" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -6115,10 +6103,10 @@
         <v>579</v>
       </c>
       <c r="C157" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D157" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -6129,10 +6117,10 @@
         <v>572</v>
       </c>
       <c r="C158" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D158" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6143,10 +6131,10 @@
         <v>579</v>
       </c>
       <c r="C159" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D159" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -6157,10 +6145,10 @@
         <v>579</v>
       </c>
       <c r="C160" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D160" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -6171,10 +6159,10 @@
         <v>579</v>
       </c>
       <c r="C161" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D161" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -6182,13 +6170,13 @@
         <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C162" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D162" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -6199,10 +6187,10 @@
         <v>577</v>
       </c>
       <c r="C163" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D163" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -6210,13 +6198,13 @@
         <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C164" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D164" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -6227,10 +6215,10 @@
         <v>577</v>
       </c>
       <c r="C165" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D165" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -6241,10 +6229,10 @@
         <v>579</v>
       </c>
       <c r="C166" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D166" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -6252,13 +6240,13 @@
         <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C167" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D167" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -6266,13 +6254,13 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C168" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D168" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -6283,10 +6271,10 @@
         <v>579</v>
       </c>
       <c r="C169" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D169" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -6297,10 +6285,10 @@
         <v>579</v>
       </c>
       <c r="C170" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D170" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -6311,10 +6299,10 @@
         <v>579</v>
       </c>
       <c r="C171" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D171" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -6325,10 +6313,10 @@
         <v>579</v>
       </c>
       <c r="C172" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D172" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -6336,13 +6324,13 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C173" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D173" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6350,13 +6338,13 @@
         <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C174" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D174" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -6364,13 +6352,13 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C175" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D175" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -6381,10 +6369,10 @@
         <v>579</v>
       </c>
       <c r="C176" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D176" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -6392,13 +6380,13 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C177" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D177" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6406,13 +6394,13 @@
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C178" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D178" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6420,13 +6408,13 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C179" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D179" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -6437,10 +6425,10 @@
         <v>575</v>
       </c>
       <c r="C180" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D180" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -6451,10 +6439,10 @@
         <v>575</v>
       </c>
       <c r="C181" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D181" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6462,13 +6450,13 @@
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C182" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D182" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -6476,13 +6464,13 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C183" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D183" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -6490,13 +6478,13 @@
         <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C184" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D184" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -6504,13 +6492,13 @@
         <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C185" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D185" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -6521,10 +6509,10 @@
         <v>575</v>
       </c>
       <c r="C186" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D186" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -6532,13 +6520,13 @@
         <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C187" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D187" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -6546,13 +6534,13 @@
         <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C188" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D188" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -6563,10 +6551,10 @@
         <v>575</v>
       </c>
       <c r="C189" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D189" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -6574,13 +6562,13 @@
         <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C190" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D190" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -6591,10 +6579,10 @@
         <v>574</v>
       </c>
       <c r="C191" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D191" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6605,10 +6593,10 @@
         <v>575</v>
       </c>
       <c r="C192" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D192" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6616,13 +6604,13 @@
         <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C193" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D193" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -6630,13 +6618,13 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C194" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D194" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -6644,13 +6632,13 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C195" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D195" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -6661,10 +6649,10 @@
         <v>575</v>
       </c>
       <c r="C196" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D196" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6672,13 +6660,13 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C197" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D197" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -6686,13 +6674,13 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C198" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D198" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6703,10 +6691,10 @@
         <v>575</v>
       </c>
       <c r="C199" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D199" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -6714,13 +6702,13 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C200" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D200" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -6728,13 +6716,13 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C201" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D201" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6742,13 +6730,13 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C202" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D202" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6756,13 +6744,13 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C203" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D203" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6773,10 +6761,10 @@
         <v>575</v>
       </c>
       <c r="C204" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D204" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6784,13 +6772,13 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C205" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D205" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6798,13 +6786,13 @@
         <v>208</v>
       </c>
       <c r="B206" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C206" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D206" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6812,13 +6800,13 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C207" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D207" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6826,13 +6814,13 @@
         <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C208" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D208" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6843,10 +6831,10 @@
         <v>575</v>
       </c>
       <c r="C209" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D209" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6857,10 +6845,10 @@
         <v>575</v>
       </c>
       <c r="C210" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D210" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6868,13 +6856,13 @@
         <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C211" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D211" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -6882,13 +6870,13 @@
         <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C212" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D212" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6896,13 +6884,13 @@
         <v>215</v>
       </c>
       <c r="B213" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C213" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D213" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6913,10 +6901,10 @@
         <v>572</v>
       </c>
       <c r="C214" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D214" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6924,13 +6912,13 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C215" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D215" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6938,13 +6926,13 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C216" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D216" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6952,13 +6940,13 @@
         <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C217" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D217" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6966,13 +6954,13 @@
         <v>220</v>
       </c>
       <c r="B218" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C218" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D218" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6980,13 +6968,13 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C219" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D219" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6994,13 +6982,13 @@
         <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C220" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="D220" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -7008,13 +6996,13 @@
         <v>223</v>
       </c>
       <c r="B221" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C221" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D221" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -7025,10 +7013,10 @@
         <v>572</v>
       </c>
       <c r="C222" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="D222" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -7036,13 +7024,13 @@
         <v>225</v>
       </c>
       <c r="B223" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C223" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D223" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -7050,13 +7038,13 @@
         <v>226</v>
       </c>
       <c r="B224" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C224" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D224" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -7064,13 +7052,13 @@
         <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C225" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D225" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -7078,13 +7066,13 @@
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C226" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="D226" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -7092,13 +7080,13 @@
         <v>229</v>
       </c>
       <c r="B227" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C227" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D227" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -7106,13 +7094,13 @@
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C228" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D228" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -7120,13 +7108,13 @@
         <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C229" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D229" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -7134,13 +7122,13 @@
         <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C230" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D230" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -7148,13 +7136,13 @@
         <v>233</v>
       </c>
       <c r="B231" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C231" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D231" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -7165,10 +7153,10 @@
         <v>575</v>
       </c>
       <c r="C232" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D232" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -7179,10 +7167,10 @@
         <v>575</v>
       </c>
       <c r="C233" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D233" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -7193,10 +7181,10 @@
         <v>575</v>
       </c>
       <c r="C234" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D234" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -7207,10 +7195,10 @@
         <v>575</v>
       </c>
       <c r="C235" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D235" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -7221,10 +7209,10 @@
         <v>575</v>
       </c>
       <c r="C236" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D236" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -7235,10 +7223,10 @@
         <v>575</v>
       </c>
       <c r="C237" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D237" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -7249,10 +7237,10 @@
         <v>575</v>
       </c>
       <c r="C238" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D238" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -7260,13 +7248,13 @@
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C239" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D239" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -7274,13 +7262,13 @@
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C240" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D240" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -7288,13 +7276,13 @@
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C241" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D241" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -7302,13 +7290,13 @@
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C242" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D242" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -7316,13 +7304,13 @@
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C243" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D243" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -7333,10 +7321,10 @@
         <v>573</v>
       </c>
       <c r="C244" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D244" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -7344,13 +7332,13 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C245" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D245" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -7358,13 +7346,13 @@
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C246" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D246" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -7372,13 +7360,13 @@
         <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C247" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D247" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -7386,13 +7374,13 @@
         <v>250</v>
       </c>
       <c r="B248" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C248" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D248" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -7400,13 +7388,13 @@
         <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C249" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D249" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -7414,13 +7402,13 @@
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C250" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D250" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -7428,13 +7416,13 @@
         <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C251" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D251" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -7442,13 +7430,13 @@
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C252" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="D252" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -7456,13 +7444,13 @@
         <v>255</v>
       </c>
       <c r="B253" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C253" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D253" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -7470,13 +7458,13 @@
         <v>256</v>
       </c>
       <c r="B254" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C254" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D254" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -7484,13 +7472,13 @@
         <v>257</v>
       </c>
       <c r="B255" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C255" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D255" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -7498,13 +7486,13 @@
         <v>258</v>
       </c>
       <c r="B256" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C256" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D256" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -7512,13 +7500,13 @@
         <v>259</v>
       </c>
       <c r="B257" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C257" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D257" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -7526,13 +7514,13 @@
         <v>260</v>
       </c>
       <c r="B258" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C258" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D258" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -7540,13 +7528,13 @@
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C259" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D259" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -7554,13 +7542,13 @@
         <v>262</v>
       </c>
       <c r="B260" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C260" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D260" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -7568,13 +7556,13 @@
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C261" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D261" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -7585,10 +7573,10 @@
         <v>574</v>
       </c>
       <c r="C262" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D262" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -7596,13 +7584,13 @@
         <v>265</v>
       </c>
       <c r="B263" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C263" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D263" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -7610,13 +7598,13 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C264" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D264" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -7624,13 +7612,13 @@
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C265" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D265" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -7638,13 +7626,13 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C266" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D266" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -7652,13 +7640,13 @@
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C267" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D267" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -7666,13 +7654,13 @@
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C268" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D268" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -7680,13 +7668,13 @@
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C269" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D269" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -7694,13 +7682,13 @@
         <v>272</v>
       </c>
       <c r="B270" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C270" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D270" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7708,13 +7696,13 @@
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C271" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D271" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -7722,13 +7710,13 @@
         <v>274</v>
       </c>
       <c r="B272" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C272" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D272" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -7736,13 +7724,13 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C273" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D273" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7750,13 +7738,13 @@
         <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C274" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D274" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7764,13 +7752,13 @@
         <v>277</v>
       </c>
       <c r="B275" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C275" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D275" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7778,13 +7766,13 @@
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C276" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D276" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7792,13 +7780,13 @@
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C277" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D277" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7806,13 +7794,13 @@
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C278" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D278" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7820,13 +7808,13 @@
         <v>281</v>
       </c>
       <c r="B279" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C279" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D279" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7834,13 +7822,13 @@
         <v>282</v>
       </c>
       <c r="B280" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C280" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D280" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7848,13 +7836,13 @@
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C281" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D281" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7865,10 +7853,10 @@
         <v>574</v>
       </c>
       <c r="C282" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D282" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7876,13 +7864,13 @@
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C283" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D283" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7893,10 +7881,10 @@
         <v>574</v>
       </c>
       <c r="C284" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D284" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7907,10 +7895,10 @@
         <v>574</v>
       </c>
       <c r="C285" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D285" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7921,10 +7909,10 @@
         <v>574</v>
       </c>
       <c r="C286" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D286" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7935,10 +7923,10 @@
         <v>574</v>
       </c>
       <c r="C287" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D287" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7949,10 +7937,10 @@
         <v>574</v>
       </c>
       <c r="C288" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D288" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7963,10 +7951,10 @@
         <v>574</v>
       </c>
       <c r="C289" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D289" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7977,10 +7965,10 @@
         <v>574</v>
       </c>
       <c r="C290" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D290" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7991,10 +7979,10 @@
         <v>574</v>
       </c>
       <c r="C291" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D291" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -8005,10 +7993,10 @@
         <v>574</v>
       </c>
       <c r="C292" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D292" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -8019,10 +8007,10 @@
         <v>574</v>
       </c>
       <c r="C293" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D293" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -8033,10 +8021,10 @@
         <v>574</v>
       </c>
       <c r="C294" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D294" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -8047,10 +8035,10 @@
         <v>574</v>
       </c>
       <c r="C295" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D295" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -8061,10 +8049,10 @@
         <v>574</v>
       </c>
       <c r="C296" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="D296" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -8075,10 +8063,10 @@
         <v>574</v>
       </c>
       <c r="C297" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="D297" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -8089,10 +8077,10 @@
         <v>574</v>
       </c>
       <c r="C298" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D298" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -8103,10 +8091,10 @@
         <v>574</v>
       </c>
       <c r="C299" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D299" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -8117,10 +8105,10 @@
         <v>574</v>
       </c>
       <c r="C300" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D300" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -8131,10 +8119,10 @@
         <v>574</v>
       </c>
       <c r="C301" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D301" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -8145,10 +8133,10 @@
         <v>574</v>
       </c>
       <c r="C302" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D302" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -8159,10 +8147,10 @@
         <v>572</v>
       </c>
       <c r="C303" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D303" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -8173,10 +8161,10 @@
         <v>574</v>
       </c>
       <c r="C304" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D304" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -8187,10 +8175,10 @@
         <v>577</v>
       </c>
       <c r="C305" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D305" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -8201,10 +8189,10 @@
         <v>572</v>
       </c>
       <c r="C306" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D306" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -8212,13 +8200,13 @@
         <v>309</v>
       </c>
       <c r="B307" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C307" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D307" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -8229,10 +8217,10 @@
         <v>572</v>
       </c>
       <c r="C308" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D308" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -8240,13 +8228,13 @@
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C309" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D309" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -8254,13 +8242,13 @@
         <v>312</v>
       </c>
       <c r="B310" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C310" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D310" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -8271,10 +8259,10 @@
         <v>574</v>
       </c>
       <c r="C311" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D311" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -8285,10 +8273,10 @@
         <v>579</v>
       </c>
       <c r="C312" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D312" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -8299,10 +8287,10 @@
         <v>574</v>
       </c>
       <c r="C313" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D313" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -8313,10 +8301,10 @@
         <v>574</v>
       </c>
       <c r="C314" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D314" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -8324,13 +8312,13 @@
         <v>317</v>
       </c>
       <c r="B315" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C315" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D315" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -8341,10 +8329,10 @@
         <v>574</v>
       </c>
       <c r="C316" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D316" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -8352,13 +8340,13 @@
         <v>319</v>
       </c>
       <c r="B317" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C317" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D317" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -8369,10 +8357,10 @@
         <v>574</v>
       </c>
       <c r="C318" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D318" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -8383,10 +8371,10 @@
         <v>574</v>
       </c>
       <c r="C319" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D319" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -8397,10 +8385,10 @@
         <v>574</v>
       </c>
       <c r="C320" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D320" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -8411,10 +8399,10 @@
         <v>575</v>
       </c>
       <c r="C321" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D321" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -8425,10 +8413,10 @@
         <v>575</v>
       </c>
       <c r="C322" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D322" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -8439,10 +8427,10 @@
         <v>573</v>
       </c>
       <c r="C323" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D323" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -8453,10 +8441,10 @@
         <v>574</v>
       </c>
       <c r="C324" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D324" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -8467,10 +8455,10 @@
         <v>573</v>
       </c>
       <c r="C325" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D325" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -8481,10 +8469,10 @@
         <v>572</v>
       </c>
       <c r="C326" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D326" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -8495,10 +8483,10 @@
         <v>577</v>
       </c>
       <c r="C327" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D327" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -8509,10 +8497,10 @@
         <v>574</v>
       </c>
       <c r="C328" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D328" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -8523,10 +8511,10 @@
         <v>574</v>
       </c>
       <c r="C329" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D329" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -8537,10 +8525,10 @@
         <v>574</v>
       </c>
       <c r="C330" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D330" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -8551,10 +8539,10 @@
         <v>577</v>
       </c>
       <c r="C331" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="D331" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -8565,10 +8553,10 @@
         <v>572</v>
       </c>
       <c r="C332" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D332" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -8579,10 +8567,10 @@
         <v>574</v>
       </c>
       <c r="C333" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D333" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -8593,10 +8581,10 @@
         <v>574</v>
       </c>
       <c r="C334" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D334" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -8607,10 +8595,10 @@
         <v>575</v>
       </c>
       <c r="C335" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D335" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -8621,10 +8609,10 @@
         <v>574</v>
       </c>
       <c r="C336" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D336" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -8635,10 +8623,10 @@
         <v>575</v>
       </c>
       <c r="C337" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D337" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -8649,10 +8637,10 @@
         <v>575</v>
       </c>
       <c r="C338" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D338" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -8663,10 +8651,10 @@
         <v>577</v>
       </c>
       <c r="C339" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D339" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -8677,10 +8665,10 @@
         <v>574</v>
       </c>
       <c r="C340" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D340" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -8691,10 +8679,10 @@
         <v>574</v>
       </c>
       <c r="C341" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D341" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -8702,13 +8690,13 @@
         <v>344</v>
       </c>
       <c r="B342" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C342" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="D342" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -8719,10 +8707,10 @@
         <v>574</v>
       </c>
       <c r="C343" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D343" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -8733,10 +8721,10 @@
         <v>574</v>
       </c>
       <c r="C344" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D344" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8747,10 +8735,10 @@
         <v>575</v>
       </c>
       <c r="C345" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D345" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -8761,10 +8749,10 @@
         <v>575</v>
       </c>
       <c r="C346" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D346" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8775,10 +8763,10 @@
         <v>573</v>
       </c>
       <c r="C347" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D347" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8789,10 +8777,10 @@
         <v>574</v>
       </c>
       <c r="C348" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="D348" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8803,10 +8791,10 @@
         <v>574</v>
       </c>
       <c r="C349" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="D349" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8817,10 +8805,10 @@
         <v>574</v>
       </c>
       <c r="C350" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D350" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8831,10 +8819,10 @@
         <v>574</v>
       </c>
       <c r="C351" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="D351" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8845,10 +8833,10 @@
         <v>574</v>
       </c>
       <c r="C352" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D352" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8859,10 +8847,10 @@
         <v>574</v>
       </c>
       <c r="C353" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="D353" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8873,10 +8861,10 @@
         <v>574</v>
       </c>
       <c r="C354" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D354" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8887,10 +8875,10 @@
         <v>574</v>
       </c>
       <c r="C355" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D355" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8898,13 +8886,13 @@
         <v>358</v>
       </c>
       <c r="B356" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="C356" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D356" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8912,13 +8900,13 @@
         <v>359</v>
       </c>
       <c r="B357" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C357" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D357" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8926,13 +8914,13 @@
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C358" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D358" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8940,13 +8928,13 @@
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C359" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D359" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8954,13 +8942,13 @@
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C360" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D360" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8968,13 +8956,13 @@
         <v>363</v>
       </c>
       <c r="B361" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C361" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D361" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8982,13 +8970,13 @@
         <v>364</v>
       </c>
       <c r="B362" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C362" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D362" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8996,13 +8984,13 @@
         <v>365</v>
       </c>
       <c r="B363" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C363" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D363" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -9010,13 +8998,13 @@
         <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C364" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D364" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -9024,13 +9012,13 @@
         <v>367</v>
       </c>
       <c r="B365" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C365" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D365" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -9038,13 +9026,13 @@
         <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C366" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D366" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -9052,13 +9040,13 @@
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C367" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D367" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -9066,13 +9054,13 @@
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C368" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="D368" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -9080,13 +9068,13 @@
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C369" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D369" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -9094,13 +9082,13 @@
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C370" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D370" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -9108,13 +9096,13 @@
         <v>373</v>
       </c>
       <c r="B371" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C371" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D371" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -9122,13 +9110,13 @@
         <v>374</v>
       </c>
       <c r="B372" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C372" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="D372" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -9136,13 +9124,13 @@
         <v>375</v>
       </c>
       <c r="B373" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C373" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="D373" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -9150,13 +9138,13 @@
         <v>376</v>
       </c>
       <c r="B374" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C374" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D374" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -9164,13 +9152,13 @@
         <v>377</v>
       </c>
       <c r="B375" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C375" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="D375" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -9178,13 +9166,13 @@
         <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C376" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D376" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -9192,13 +9180,13 @@
         <v>379</v>
       </c>
       <c r="B377" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C377" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D377" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -9206,13 +9194,13 @@
         <v>380</v>
       </c>
       <c r="B378" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C378" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D378" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -9220,13 +9208,13 @@
         <v>381</v>
       </c>
       <c r="B379" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C379" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D379" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -9234,13 +9222,13 @@
         <v>382</v>
       </c>
       <c r="B380" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C380" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D380" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -9251,10 +9239,10 @@
         <v>577</v>
       </c>
       <c r="C381" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="D381" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -9262,13 +9250,13 @@
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C382" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D382" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -9276,13 +9264,13 @@
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C383" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="D383" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -9290,13 +9278,13 @@
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C384" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D384" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -9307,10 +9295,10 @@
         <v>577</v>
       </c>
       <c r="C385" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="D385" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -9318,13 +9306,13 @@
         <v>388</v>
       </c>
       <c r="B386" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C386" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D386" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -9332,13 +9320,13 @@
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C387" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D387" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -9349,10 +9337,10 @@
         <v>577</v>
       </c>
       <c r="C388" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D388" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -9363,10 +9351,10 @@
         <v>577</v>
       </c>
       <c r="C389" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="D389" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -9377,10 +9365,10 @@
         <v>577</v>
       </c>
       <c r="C390" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D390" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -9388,13 +9376,13 @@
         <v>393</v>
       </c>
       <c r="B391" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C391" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D391" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -9402,13 +9390,13 @@
         <v>394</v>
       </c>
       <c r="B392" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C392" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D392" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -9419,10 +9407,10 @@
         <v>577</v>
       </c>
       <c r="C393" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D393" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -9430,13 +9418,13 @@
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C394" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D394" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -9444,13 +9432,13 @@
         <v>397</v>
       </c>
       <c r="B395" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C395" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D395" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -9458,13 +9446,13 @@
         <v>398</v>
       </c>
       <c r="B396" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C396" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D396" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -9475,10 +9463,10 @@
         <v>577</v>
       </c>
       <c r="C397" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D397" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -9486,13 +9474,13 @@
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C398" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D398" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -9500,13 +9488,13 @@
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C399" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D399" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -9514,13 +9502,13 @@
         <v>402</v>
       </c>
       <c r="B400" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C400" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="D400" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -9528,13 +9516,13 @@
         <v>402</v>
       </c>
       <c r="B401" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C401" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D401" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -9542,13 +9530,13 @@
         <v>403</v>
       </c>
       <c r="B402" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C402" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D402" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -9556,13 +9544,13 @@
         <v>404</v>
       </c>
       <c r="B403" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C403" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D403" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -9570,13 +9558,13 @@
         <v>405</v>
       </c>
       <c r="B404" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C404" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="D404" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -9584,13 +9572,13 @@
         <v>406</v>
       </c>
       <c r="B405" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C405" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D405" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -9598,13 +9586,13 @@
         <v>407</v>
       </c>
       <c r="B406" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C406" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D406" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -9612,13 +9600,13 @@
         <v>408</v>
       </c>
       <c r="B407" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C407" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D407" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -9626,13 +9614,13 @@
         <v>409</v>
       </c>
       <c r="B408" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C408" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="D408" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -9640,13 +9628,13 @@
         <v>410</v>
       </c>
       <c r="B409" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C409" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D409" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -9654,13 +9642,13 @@
         <v>411</v>
       </c>
       <c r="B410" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C410" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="D410" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -9668,13 +9656,13 @@
         <v>412</v>
       </c>
       <c r="B411" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C411" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D411" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -9682,13 +9670,13 @@
         <v>413</v>
       </c>
       <c r="B412" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C412" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D412" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -9696,13 +9684,13 @@
         <v>414</v>
       </c>
       <c r="B413" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C413" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D413" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -9710,13 +9698,13 @@
         <v>415</v>
       </c>
       <c r="B414" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C414" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="D414" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -9724,13 +9712,13 @@
         <v>416</v>
       </c>
       <c r="B415" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C415" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="D415" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -9738,13 +9726,13 @@
         <v>417</v>
       </c>
       <c r="B416" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C416" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D416" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -9752,13 +9740,13 @@
         <v>418</v>
       </c>
       <c r="B417" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C417" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="D417" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9766,13 +9754,13 @@
         <v>419</v>
       </c>
       <c r="B418" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C418" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D418" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9780,13 +9768,13 @@
         <v>420</v>
       </c>
       <c r="B419" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C419" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D419" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9794,13 +9782,13 @@
         <v>421</v>
       </c>
       <c r="B420" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C420" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D420" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9808,13 +9796,13 @@
         <v>422</v>
       </c>
       <c r="B421" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C421" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D421" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9822,13 +9810,13 @@
         <v>423</v>
       </c>
       <c r="B422" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C422" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D422" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9839,10 +9827,10 @@
         <v>579</v>
       </c>
       <c r="C423" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D423" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9850,13 +9838,13 @@
         <v>425</v>
       </c>
       <c r="B424" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C424" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D424" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9864,13 +9852,13 @@
         <v>426</v>
       </c>
       <c r="B425" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C425" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D425" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9878,13 +9866,13 @@
         <v>427</v>
       </c>
       <c r="B426" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C426" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D426" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9895,10 +9883,10 @@
         <v>577</v>
       </c>
       <c r="C427" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D427" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9906,13 +9894,13 @@
         <v>429</v>
       </c>
       <c r="B428" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C428" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D428" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9920,13 +9908,13 @@
         <v>430</v>
       </c>
       <c r="B429" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C429" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D429" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9937,10 +9925,10 @@
         <v>580</v>
       </c>
       <c r="C430" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D430" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9948,13 +9936,13 @@
         <v>432</v>
       </c>
       <c r="B431" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C431" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="D431" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9965,10 +9953,10 @@
         <v>572</v>
       </c>
       <c r="C432" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D432" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9976,13 +9964,13 @@
         <v>434</v>
       </c>
       <c r="B433" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C433" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D433" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9990,13 +9978,13 @@
         <v>435</v>
       </c>
       <c r="B434" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C434" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D434" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -10004,13 +9992,13 @@
         <v>436</v>
       </c>
       <c r="B435" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C435" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="D435" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -10018,13 +10006,13 @@
         <v>437</v>
       </c>
       <c r="B436" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C436" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="D436" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -10032,13 +10020,13 @@
         <v>438</v>
       </c>
       <c r="B437" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C437" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D437" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -10049,10 +10037,10 @@
         <v>574</v>
       </c>
       <c r="C438" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D438" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -10063,10 +10051,10 @@
         <v>572</v>
       </c>
       <c r="C439" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="D439" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -10074,13 +10062,13 @@
         <v>441</v>
       </c>
       <c r="B440" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C440" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="D440" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -10088,13 +10076,13 @@
         <v>442</v>
       </c>
       <c r="B441" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C441" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="D441" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -10102,13 +10090,13 @@
         <v>443</v>
       </c>
       <c r="B442" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C442" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D442" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -10119,10 +10107,10 @@
         <v>577</v>
       </c>
       <c r="C443" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="D443" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -10133,10 +10121,10 @@
         <v>572</v>
       </c>
       <c r="C444" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="D444" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -10147,10 +10135,10 @@
         <v>577</v>
       </c>
       <c r="C445" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D445" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -10161,10 +10149,10 @@
         <v>572</v>
       </c>
       <c r="C446" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="D446" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -10175,10 +10163,10 @@
         <v>572</v>
       </c>
       <c r="C447" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D447" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -10186,13 +10174,13 @@
         <v>449</v>
       </c>
       <c r="B448" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C448" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="D448" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -10203,10 +10191,10 @@
         <v>572</v>
       </c>
       <c r="C449" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="D449" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -10217,10 +10205,10 @@
         <v>572</v>
       </c>
       <c r="C450" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="D450" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -10228,13 +10216,13 @@
         <v>452</v>
       </c>
       <c r="B451" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C451" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="D451" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -10242,13 +10230,13 @@
         <v>453</v>
       </c>
       <c r="B452" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C452" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D452" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -10256,13 +10244,13 @@
         <v>454</v>
       </c>
       <c r="B453" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C453" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="D453" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -10270,13 +10258,13 @@
         <v>455</v>
       </c>
       <c r="B454" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C454" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="D454" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -10284,13 +10272,13 @@
         <v>456</v>
       </c>
       <c r="B455" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C455" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="D455" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -10298,13 +10286,13 @@
         <v>457</v>
       </c>
       <c r="B456" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C456" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="D456" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -10312,13 +10300,13 @@
         <v>458</v>
       </c>
       <c r="B457" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C457" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D457" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -10326,13 +10314,13 @@
         <v>459</v>
       </c>
       <c r="B458" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C458" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="D458" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -10340,13 +10328,13 @@
         <v>460</v>
       </c>
       <c r="B459" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C459" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D459" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -10354,13 +10342,13 @@
         <v>461</v>
       </c>
       <c r="B460" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C460" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="D460" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -10368,13 +10356,13 @@
         <v>462</v>
       </c>
       <c r="B461" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C461" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="D461" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -10385,10 +10373,10 @@
         <v>580</v>
       </c>
       <c r="C462" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D462" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -10396,13 +10384,13 @@
         <v>464</v>
       </c>
       <c r="B463" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C463" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D463" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -10410,13 +10398,13 @@
         <v>465</v>
       </c>
       <c r="B464" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C464" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="D464" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -10427,10 +10415,10 @@
         <v>580</v>
       </c>
       <c r="C465" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D465" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -10438,13 +10426,13 @@
         <v>467</v>
       </c>
       <c r="B466" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C466" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="D466" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -10452,13 +10440,13 @@
         <v>468</v>
       </c>
       <c r="B467" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C467" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D467" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -10466,13 +10454,13 @@
         <v>469</v>
       </c>
       <c r="B468" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C468" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="D468" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -10480,13 +10468,13 @@
         <v>470</v>
       </c>
       <c r="B469" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C469" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D469" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -10494,13 +10482,13 @@
         <v>471</v>
       </c>
       <c r="B470" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C470" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D470" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -10511,10 +10499,10 @@
         <v>572</v>
       </c>
       <c r="C471" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D471" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -10525,10 +10513,10 @@
         <v>580</v>
       </c>
       <c r="C472" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="D472" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -10539,10 +10527,10 @@
         <v>572</v>
       </c>
       <c r="C473" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="D473" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -10550,13 +10538,13 @@
         <v>475</v>
       </c>
       <c r="B474" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C474" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D474" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -10564,13 +10552,13 @@
         <v>476</v>
       </c>
       <c r="B475" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C475" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="D475" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -10578,13 +10566,13 @@
         <v>477</v>
       </c>
       <c r="B476" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C476" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="D476" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -10592,13 +10580,13 @@
         <v>478</v>
       </c>
       <c r="B477" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C477" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="D477" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -10606,13 +10594,13 @@
         <v>479</v>
       </c>
       <c r="B478" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C478" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="D478" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -10620,13 +10608,13 @@
         <v>480</v>
       </c>
       <c r="B479" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C479" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="D479" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -10634,13 +10622,13 @@
         <v>481</v>
       </c>
       <c r="B480" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C480" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="D480" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -10648,13 +10636,13 @@
         <v>482</v>
       </c>
       <c r="B481" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C481" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D481" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -10662,13 +10650,13 @@
         <v>483</v>
       </c>
       <c r="B482" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C482" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D482" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -10676,13 +10664,13 @@
         <v>484</v>
       </c>
       <c r="B483" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C483" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D483" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -10693,10 +10681,10 @@
         <v>577</v>
       </c>
       <c r="C484" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D484" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -10707,10 +10695,10 @@
         <v>577</v>
       </c>
       <c r="C485" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="D485" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -10721,10 +10709,10 @@
         <v>579</v>
       </c>
       <c r="C486" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="D486" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -10735,10 +10723,10 @@
         <v>577</v>
       </c>
       <c r="C487" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D487" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -10749,10 +10737,10 @@
         <v>577</v>
       </c>
       <c r="C488" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="D488" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -10763,10 +10751,10 @@
         <v>579</v>
       </c>
       <c r="C489" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="D489" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10774,13 +10762,13 @@
         <v>491</v>
       </c>
       <c r="B490" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C490" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D490" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10788,13 +10776,13 @@
         <v>492</v>
       </c>
       <c r="B491" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C491" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D491" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10805,10 +10793,10 @@
         <v>577</v>
       </c>
       <c r="C492" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="D492" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10819,10 +10807,10 @@
         <v>579</v>
       </c>
       <c r="C493" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D493" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10833,10 +10821,10 @@
         <v>579</v>
       </c>
       <c r="C494" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="D494" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10844,13 +10832,13 @@
         <v>495</v>
       </c>
       <c r="B495" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C495" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D495" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10858,13 +10846,13 @@
         <v>496</v>
       </c>
       <c r="B496" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C496" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D496" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10875,10 +10863,10 @@
         <v>572</v>
       </c>
       <c r="C497" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D497" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -10889,10 +10877,10 @@
         <v>577</v>
       </c>
       <c r="C498" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="D498" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10903,10 +10891,10 @@
         <v>579</v>
       </c>
       <c r="C499" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="D499" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -10914,13 +10902,13 @@
         <v>500</v>
       </c>
       <c r="B500" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C500" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="D500" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10931,10 +10919,10 @@
         <v>577</v>
       </c>
       <c r="C501" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D501" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10945,10 +10933,10 @@
         <v>579</v>
       </c>
       <c r="C502" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="D502" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10959,10 +10947,10 @@
         <v>577</v>
       </c>
       <c r="C503" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D503" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10973,10 +10961,10 @@
         <v>579</v>
       </c>
       <c r="C504" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D504" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10987,10 +10975,10 @@
         <v>577</v>
       </c>
       <c r="C505" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D505" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -11001,10 +10989,10 @@
         <v>577</v>
       </c>
       <c r="C506" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="D506" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -11012,13 +11000,13 @@
         <v>507</v>
       </c>
       <c r="B507" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C507" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D507" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -11029,10 +11017,10 @@
         <v>577</v>
       </c>
       <c r="C508" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="D508" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -11040,13 +11028,13 @@
         <v>509</v>
       </c>
       <c r="B509" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C509" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D509" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -11054,13 +11042,13 @@
         <v>510</v>
       </c>
       <c r="B510" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C510" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="D510" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -11068,13 +11056,13 @@
         <v>511</v>
       </c>
       <c r="B511" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C511" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="D511" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -11085,10 +11073,10 @@
         <v>577</v>
       </c>
       <c r="C512" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D512" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -11099,10 +11087,10 @@
         <v>577</v>
       </c>
       <c r="C513" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="D513" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -11110,13 +11098,13 @@
         <v>514</v>
       </c>
       <c r="B514" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C514" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D514" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -11124,13 +11112,13 @@
         <v>515</v>
       </c>
       <c r="B515" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C515" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="D515" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -11138,13 +11126,13 @@
         <v>516</v>
       </c>
       <c r="B516" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C516" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="D516" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -11155,10 +11143,10 @@
         <v>572</v>
       </c>
       <c r="C517" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="D517" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -11166,13 +11154,13 @@
         <v>518</v>
       </c>
       <c r="B518" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C518" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="D518" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -11183,10 +11171,10 @@
         <v>577</v>
       </c>
       <c r="C519" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="D519" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -11194,13 +11182,13 @@
         <v>520</v>
       </c>
       <c r="B520" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C520" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D520" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -11208,13 +11196,13 @@
         <v>521</v>
       </c>
       <c r="B521" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C521" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="D521" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -11222,13 +11210,13 @@
         <v>522</v>
       </c>
       <c r="B522" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C522" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D522" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -11236,13 +11224,13 @@
         <v>523</v>
       </c>
       <c r="B523" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C523" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="D523" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -11253,10 +11241,10 @@
         <v>572</v>
       </c>
       <c r="C524" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="D524" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -11267,10 +11255,10 @@
         <v>577</v>
       </c>
       <c r="C525" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="D525" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -11278,13 +11266,13 @@
         <v>526</v>
       </c>
       <c r="B526" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C526" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="D526" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -11292,13 +11280,13 @@
         <v>527</v>
       </c>
       <c r="B527" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C527" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="D527" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -11306,13 +11294,13 @@
         <v>528</v>
       </c>
       <c r="B528" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C528" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="D528" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -11320,13 +11308,13 @@
         <v>529</v>
       </c>
       <c r="B529" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C529" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="D529" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -11337,10 +11325,10 @@
         <v>572</v>
       </c>
       <c r="C530" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="D530" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -11348,13 +11336,13 @@
         <v>531</v>
       </c>
       <c r="B531" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C531" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="D531" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -11365,10 +11353,10 @@
         <v>577</v>
       </c>
       <c r="C532" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="D532" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -11376,13 +11364,13 @@
         <v>533</v>
       </c>
       <c r="B533" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C533" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D533" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -11393,10 +11381,10 @@
         <v>577</v>
       </c>
       <c r="C534" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D534" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -11404,13 +11392,13 @@
         <v>535</v>
       </c>
       <c r="B535" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C535" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="D535" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -11418,13 +11406,13 @@
         <v>536</v>
       </c>
       <c r="B536" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C536" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D536" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -11432,13 +11420,13 @@
         <v>537</v>
       </c>
       <c r="B537" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C537" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D537" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -11446,13 +11434,13 @@
         <v>538</v>
       </c>
       <c r="B538" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C538" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="D538" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -11460,13 +11448,13 @@
         <v>539</v>
       </c>
       <c r="B539" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C539" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="D539" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -11474,13 +11462,13 @@
         <v>540</v>
       </c>
       <c r="B540" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C540" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="D540" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -11488,13 +11476,13 @@
         <v>541</v>
       </c>
       <c r="B541" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C541" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="D541" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -11505,10 +11493,10 @@
         <v>577</v>
       </c>
       <c r="C542" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="D542" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -11516,13 +11504,13 @@
         <v>543</v>
       </c>
       <c r="B543" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C543" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="D543" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -11530,13 +11518,13 @@
         <v>544</v>
       </c>
       <c r="B544" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C544" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="D544" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -11544,13 +11532,13 @@
         <v>545</v>
       </c>
       <c r="B545" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C545" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="D545" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -11558,13 +11546,13 @@
         <v>546</v>
       </c>
       <c r="B546" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C546" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="D546" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -11572,13 +11560,13 @@
         <v>547</v>
       </c>
       <c r="B547" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C547" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="D547" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -11586,13 +11574,13 @@
         <v>548</v>
       </c>
       <c r="B548" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C548" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="D548" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -11600,13 +11588,13 @@
         <v>549</v>
       </c>
       <c r="B549" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C549" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="D549" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -11617,10 +11605,10 @@
         <v>577</v>
       </c>
       <c r="C550" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="D550" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -11628,13 +11616,13 @@
         <v>551</v>
       </c>
       <c r="B551" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C551" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="D551" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -11645,10 +11633,10 @@
         <v>577</v>
       </c>
       <c r="C552" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="D552" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -11659,10 +11647,10 @@
         <v>577</v>
       </c>
       <c r="C553" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="D553" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -11673,10 +11661,10 @@
         <v>572</v>
       </c>
       <c r="C554" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="D554" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -11684,13 +11672,13 @@
         <v>555</v>
       </c>
       <c r="B555" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C555" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D555" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -11698,13 +11686,13 @@
         <v>556</v>
       </c>
       <c r="B556" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C556" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="D556" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -11715,10 +11703,10 @@
         <v>577</v>
       </c>
       <c r="C557" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="D557" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -11726,13 +11714,13 @@
         <v>558</v>
       </c>
       <c r="B558" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C558" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="D558" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -11743,10 +11731,10 @@
         <v>577</v>
       </c>
       <c r="C559" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="D559" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -11754,13 +11742,13 @@
         <v>560</v>
       </c>
       <c r="B560" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C560" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="D560" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -11768,13 +11756,13 @@
         <v>561</v>
       </c>
       <c r="B561" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C561" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="D561" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -11782,13 +11770,13 @@
         <v>562</v>
       </c>
       <c r="B562" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C562" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="D562" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11796,13 +11784,13 @@
         <v>563</v>
       </c>
       <c r="B563" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C563" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="D563" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11813,10 +11801,10 @@
         <v>572</v>
       </c>
       <c r="C564" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D564" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11827,10 +11815,10 @@
         <v>577</v>
       </c>
       <c r="C565" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="D565" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11841,10 +11829,10 @@
         <v>577</v>
       </c>
       <c r="C566" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="D566" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11852,13 +11840,13 @@
         <v>567</v>
       </c>
       <c r="B567" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C567" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="D567" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11866,13 +11854,13 @@
         <v>568</v>
       </c>
       <c r="B568" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C568" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="D568" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11883,10 +11871,10 @@
         <v>577</v>
       </c>
       <c r="C569" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="D569" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11897,10 +11885,10 @@
         <v>577</v>
       </c>
       <c r="C570" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="D570" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11908,13 +11896,13 @@
         <v>571</v>
       </c>
       <c r="B571" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C571" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="D571" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
   </sheetData>
